--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
@@ -580,22 +580,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>73.53</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>26.47</v>
+      </c>
+      <c r="I4">
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -612,22 +615,25 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I5">
+        <v>7.4</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -644,22 +650,25 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>80.56</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>19.44</v>
+      </c>
+      <c r="I6">
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,22 +685,25 @@
         <v>43</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>74.42</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>25.58</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
       </c>
       <c r="J7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -708,22 +720,25 @@
         <v>44</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>7.4</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -740,22 +755,25 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>95.83</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>4.17</v>
+      </c>
+      <c r="I9">
+        <v>7.3</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1403,22 +1421,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>73.53</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>26.47</v>
+      </c>
+      <c r="I4">
+        <v>7.3</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>26.47</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1435,22 +1456,25 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>70.97</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>29.03</v>
+      </c>
+      <c r="I5">
+        <v>7.4</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>29.03</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1467,22 +1491,25 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>80.56</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>19.44</v>
+      </c>
+      <c r="I6">
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1499,22 +1526,25 @@
         <v>43</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>74.42</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>25.58</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
       </c>
       <c r="J7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1531,22 +1561,25 @@
         <v>44</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>7.4</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1563,22 +1596,25 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>95.83</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>4.17</v>
+      </c>
+      <c r="I9">
+        <v>7.3</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="10" spans="1:11">

--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
@@ -542,28 +542,28 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>83.33</v>
+        <v>76.19</v>
       </c>
       <c r="H3">
-        <v>16.67</v>
+        <v>23.81</v>
       </c>
       <c r="I3">
         <v>9.1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>16.67</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -717,28 +717,28 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>83.72</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>16.28</v>
       </c>
       <c r="I8">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -787,28 +787,28 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>77.5</v>
+      </c>
+      <c r="H10">
+        <v>22.5</v>
+      </c>
+      <c r="I10">
+        <v>7.6</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>10</v>
-      </c>
-      <c r="G10">
-        <v>74.36</v>
-      </c>
-      <c r="H10">
-        <v>25.64</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>23.08</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -825,25 +825,25 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>84.09</v>
+        <v>95.45</v>
       </c>
       <c r="H11">
-        <v>15.91</v>
+        <v>4.55</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>15.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -976,13 +976,13 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>100</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -1136,13 +1136,13 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>100</v>
       </c>
       <c r="J8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>100</v>
@@ -1200,13 +1200,13 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>100</v>
@@ -1383,28 +1383,28 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>83.33</v>
+        <v>76.19</v>
       </c>
       <c r="H3">
-        <v>16.67</v>
+        <v>23.81</v>
       </c>
       <c r="I3">
         <v>9.1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>16.67</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1558,28 +1558,28 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>83.72</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>16.28</v>
       </c>
       <c r="I8">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1628,28 +1628,28 @@
         <v>25</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>77.5</v>
+      </c>
+      <c r="H10">
+        <v>22.5</v>
+      </c>
+      <c r="I10">
+        <v>7.6</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>10</v>
-      </c>
-      <c r="G10">
-        <v>74.36</v>
-      </c>
-      <c r="H10">
-        <v>25.64</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-      <c r="K10">
-        <v>23.08</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1666,25 +1666,25 @@
         <v>44</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>84.09</v>
+        <v>95.45</v>
       </c>
       <c r="H11">
-        <v>15.91</v>
+        <v>4.55</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>15.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
@@ -860,25 +860,25 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>86.05</v>
+        <v>88.37</v>
       </c>
       <c r="H12">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
       <c r="I12">
         <v>8.6</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
     </row>
   </sheetData>
@@ -1701,25 +1701,25 @@
         <v>43</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>86.05</v>
+        <v>88.37</v>
       </c>
       <c r="H12">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
       <c r="I12">
         <v>8.6</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>13.95</v>
+        <v>11.63</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 20211.xlsx
@@ -802,13 +802,13 @@
         <v>22.5</v>
       </c>
       <c r="I10">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -872,13 +872,13 @@
         <v>11.63</v>
       </c>
       <c r="I12">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>11.63</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1643,13 +1643,13 @@
         <v>22.5</v>
       </c>
       <c r="I10">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1713,13 +1713,13 @@
         <v>11.63</v>
       </c>
       <c r="I12">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>11.63</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
   </sheetData>
